--- a/calculator/material.xlsx
+++ b/calculator/material.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elena/Desktop/Zavod/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466C0A45-15E3-1742-A6A3-074AAF9D426C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940EDD81-D62E-4840-BB68-F497F61F0A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="20900" windowHeight="13560" xr2:uid="{1A0EF1F8-96B4-D44F-A0D8-2A04A44853E8}"/>
+    <workbookView xWindow="5880" yWindow="1820" windowWidth="20900" windowHeight="13560" xr2:uid="{1A0EF1F8-96B4-D44F-A0D8-2A04A44853E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$218</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="212">
   <si>
     <t>n</t>
   </si>
@@ -646,33 +649,12 @@
     <t>Очищення дробометне</t>
   </si>
   <si>
-    <t>Технічний контроль</t>
-  </si>
-  <si>
     <t>Обнаждачування</t>
   </si>
   <si>
     <t>Виправлення дефектів</t>
   </si>
   <si>
-    <t>Транспортування</t>
-  </si>
-  <si>
-    <t>Обрубка виливка.Обробка  на ВДР</t>
-  </si>
-  <si>
-    <t>Транспортування.  Передача  на дільницю  ВДР</t>
-  </si>
-  <si>
-    <t>Обрубка виливка.Видалення газонаколів</t>
-  </si>
-  <si>
-    <t>Відділка та складання напівформи верху</t>
-  </si>
-  <si>
-    <t>Відділка і складання напівформи низу</t>
-  </si>
-  <si>
     <t>шт.</t>
   </si>
   <si>
@@ -682,13 +664,16 @@
     <t>Виготовлення напівформ</t>
   </si>
   <si>
-    <t>Підготовка</t>
-  </si>
-  <si>
     <t>Приготування сумішей</t>
   </si>
   <si>
     <t>Ливникова воронка</t>
+  </si>
+  <si>
+    <t>Обробка  на ВДР</t>
+  </si>
+  <si>
+    <t>Відділка та складання напівформи</t>
   </si>
 </sst>
 </file>
@@ -777,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -809,14 +794,6 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79204F6B-517A-564E-9C6F-844AD3C40ABB}">
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1123,7 @@
     <col min="5" max="5" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="6"/>
+    <col min="8" max="8" width="32.83203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4451,7 +4428,7 @@
         <v>562.5</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I117" s="5">
         <v>1</v>
@@ -4479,7 +4456,7 @@
         <v>870</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I118" s="5">
         <v>1</v>
@@ -4507,7 +4484,7 @@
         <v>50</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I119" s="5">
         <v>1</v>
@@ -4535,7 +4512,7 @@
         <v>60</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I120" s="5">
         <v>1</v>
@@ -4563,7 +4540,7 @@
         <v>32.6</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I121" s="5">
         <v>1</v>
@@ -4591,7 +4568,7 @@
         <v>60</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I122" s="5">
         <v>1</v>
@@ -4619,7 +4596,7 @@
         <v>119.86</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I123" s="5">
         <v>1</v>
@@ -4647,7 +4624,7 @@
         <v>134.93</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I124" s="5">
         <v>1</v>
@@ -4675,7 +4652,7 @@
         <v>70.2</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I125" s="5">
         <v>1</v>
@@ -4703,7 +4680,7 @@
         <v>102.3</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I126" s="5">
         <v>1</v>
@@ -4731,7 +4708,7 @@
         <v>60</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I127" s="5">
         <v>1</v>
@@ -4759,7 +4736,7 @@
         <v>32.6</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I128" s="5">
         <v>1</v>
@@ -4787,7 +4764,7 @@
         <v>60</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I129" s="5">
         <v>1</v>
@@ -4815,7 +4792,7 @@
         <v>119.86</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I130" s="5">
         <v>1</v>
@@ -4843,7 +4820,7 @@
         <v>562.5</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I131" s="5">
         <v>1</v>
@@ -4871,7 +4848,7 @@
         <v>870</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I132" s="5">
         <v>1</v>
@@ -4899,7 +4876,7 @@
         <v>50</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I133" s="5">
         <v>1</v>
@@ -4927,7 +4904,7 @@
         <v>52.15</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I134" s="5">
         <v>1</v>
@@ -4955,7 +4932,7 @@
         <v>70.2</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I135" s="5">
         <v>1</v>
@@ -4983,7 +4960,7 @@
         <v>53.34</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I136" s="5">
         <v>1</v>
@@ -5011,7 +4988,7 @@
         <v>51.55</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I137" s="5">
         <v>1</v>
@@ -5039,7 +5016,7 @@
         <v>134.93</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I138" s="5">
         <v>1</v>
@@ -5067,7 +5044,7 @@
         <v>19.77</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I139" s="5">
         <v>1</v>
@@ -5095,7 +5072,7 @@
         <v>69.53</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I140" s="5">
         <v>1</v>
@@ -5123,7 +5100,7 @@
         <v>102.3</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I141" s="5">
         <v>1</v>
@@ -5151,7 +5128,7 @@
         <v>20.85</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I142" s="5">
         <v>1</v>
@@ -5177,87 +5154,87 @@
       <c r="F143" s="5"/>
       <c r="G143" s="14"/>
       <c r="H143" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I143" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A144" s="17">
+    <row r="144" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C144" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="18">
+      <c r="C144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="8">
         <v>0.73</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="9">
         <f t="shared" si="2"/>
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="F144" s="20"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I144" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A145" s="17">
+      <c r="F144" s="5"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
         <v>144</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C145" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D145" s="18">
+      <c r="C145" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="8">
         <v>0.1</v>
       </c>
-      <c r="E145" s="19">
+      <c r="E145" s="9">
         <f t="shared" si="2"/>
         <v>1E-4</v>
       </c>
-      <c r="F145" s="20"/>
-      <c r="G145" s="21"/>
-      <c r="H145" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I145" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="22" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A146" s="17">
+      <c r="F145" s="5"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I145" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
         <v>145</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C146" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" s="18">
+      <c r="C146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="8">
         <v>0.73</v>
       </c>
-      <c r="E146" s="19">
+      <c r="E146" s="9">
         <f t="shared" si="2"/>
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="F146" s="20"/>
-      <c r="G146" s="21"/>
-      <c r="H146" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="I146" s="20">
+      <c r="F146" s="5"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I146" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5283,7 +5260,7 @@
         <v>720.65</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I147" s="5">
         <v>1</v>
@@ -5311,7 +5288,7 @@
         <v>50.5</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I148" s="5">
         <v>1</v>
@@ -5339,7 +5316,7 @@
         <v>88.98</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I149" s="5">
         <v>1</v>
@@ -5393,7 +5370,7 @@
       <c r="F151" s="5"/>
       <c r="G151" s="14"/>
       <c r="H151" s="5" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I151" s="5">
         <v>1</v>
@@ -5419,7 +5396,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="14"/>
       <c r="H152" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I152" s="5">
         <v>1</v>
@@ -5445,7 +5422,7 @@
       <c r="F153" s="5"/>
       <c r="G153" s="14"/>
       <c r="H153" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I153" s="5">
         <v>1</v>
@@ -5473,7 +5450,7 @@
         <v>126.25</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I154" s="5">
         <v>1</v>
@@ -5499,7 +5476,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="14"/>
       <c r="H155" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I155" s="5">
         <v>1</v>
@@ -5525,7 +5502,7 @@
       <c r="F156" s="5"/>
       <c r="G156" s="14"/>
       <c r="H156" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I156" s="5">
         <v>1</v>
@@ -5551,7 +5528,7 @@
       <c r="F157" s="5"/>
       <c r="G157" s="14"/>
       <c r="H157" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I157" s="5">
         <v>1</v>
@@ -5579,7 +5556,7 @@
         <v>36.51</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -5605,7 +5582,7 @@
       <c r="F159" s="5"/>
       <c r="G159" s="14"/>
       <c r="H159" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I159" s="5">
         <v>1</v>
@@ -5631,7 +5608,7 @@
       <c r="F160" s="5"/>
       <c r="G160" s="14"/>
       <c r="H160" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I160" s="5">
         <v>1</v>
@@ -5657,7 +5634,7 @@
       <c r="F161" s="5"/>
       <c r="G161" s="14"/>
       <c r="H161" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I161" s="5">
         <v>1</v>
@@ -5683,7 +5660,7 @@
       <c r="F162" s="5"/>
       <c r="G162" s="14"/>
       <c r="H162" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I162" s="5">
         <v>1</v>
@@ -5709,7 +5686,7 @@
       <c r="F163" s="5"/>
       <c r="G163" s="14"/>
       <c r="H163" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I163" s="5">
         <v>1</v>
@@ -5735,7 +5712,7 @@
       <c r="F164" s="5"/>
       <c r="G164" s="14"/>
       <c r="H164" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I164" s="5">
         <v>1</v>
@@ -5761,7 +5738,7 @@
       <c r="F165" s="5"/>
       <c r="G165" s="14"/>
       <c r="H165" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
@@ -5787,7 +5764,7 @@
       <c r="F166" s="5"/>
       <c r="G166" s="14"/>
       <c r="H166" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I166" s="5">
         <v>1</v>
@@ -5813,7 +5790,7 @@
       <c r="F167" s="5"/>
       <c r="G167" s="14"/>
       <c r="H167" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I167" s="5">
         <v>1</v>
@@ -5839,7 +5816,7 @@
       <c r="F168" s="5"/>
       <c r="G168" s="14"/>
       <c r="H168" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I168" s="5">
         <v>1</v>
@@ -5865,7 +5842,7 @@
       <c r="F169" s="5"/>
       <c r="G169" s="14"/>
       <c r="H169" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I169" s="5">
         <v>1</v>
@@ -5876,7 +5853,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>25</v>
@@ -5893,7 +5870,7 @@
         <v>175</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I170" s="5">
         <v>1</v>
@@ -6089,7 +6066,7 @@
         <v>159</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D178" s="8">
         <v>1</v>
@@ -6118,7 +6095,7 @@
         <v>160</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D179" s="8">
         <v>2</v>
@@ -6147,7 +6124,7 @@
         <v>161</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D180" s="8">
         <v>6</v>
@@ -6173,7 +6150,7 @@
         <v>162</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D181" s="8">
         <v>2</v>
@@ -6199,7 +6176,7 @@
         <v>163</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D182" s="8">
         <v>2</v>
@@ -6225,7 +6202,7 @@
         <v>164</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D183" s="8">
         <v>2</v>
@@ -6251,7 +6228,7 @@
         <v>143</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D184" s="8">
         <v>22</v>
@@ -6280,7 +6257,7 @@
         <v>165</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D185" s="8">
         <v>3.228E-3</v>
@@ -6765,7 +6742,7 @@
         <v>3.5730970600000001E-3</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I203" s="5">
         <v>1</v>
@@ -6793,7 +6770,7 @@
         <v>548.92999999999995</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I204" s="5">
         <v>1</v>
@@ -6821,7 +6798,7 @@
         <v>110</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I205" s="5">
         <v>1</v>
@@ -6849,7 +6826,7 @@
         <v>210</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I206" s="5">
         <v>1</v>
@@ -6863,7 +6840,7 @@
         <v>187</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D207" s="8">
         <v>1.32432E-2</v>
@@ -6877,7 +6854,7 @@
         <v>283.38</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I207" s="5">
         <v>1</v>
@@ -6903,7 +6880,7 @@
       <c r="F208" s="5"/>
       <c r="G208" s="14"/>
       <c r="H208" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I208" s="5">
         <v>1</v>
@@ -6929,7 +6906,7 @@
       <c r="F209" s="5"/>
       <c r="G209" s="14"/>
       <c r="H209" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I209" s="5">
         <v>1</v>
@@ -6955,7 +6932,7 @@
       <c r="F210" s="5"/>
       <c r="G210" s="14"/>
       <c r="H210" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I210" s="5">
         <v>1</v>
@@ -6979,7 +6956,7 @@
       <c r="F211" s="5"/>
       <c r="G211" s="14"/>
       <c r="H211" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I211" s="5">
         <v>1</v>
@@ -7003,7 +6980,7 @@
       <c r="F212" s="5"/>
       <c r="G212" s="14"/>
       <c r="H212" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I212" s="5">
         <v>1</v>
@@ -7027,7 +7004,7 @@
       <c r="F213" s="5"/>
       <c r="G213" s="14"/>
       <c r="H213" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I213" s="5">
         <v>1</v>
@@ -7051,7 +7028,7 @@
       <c r="F214" s="5"/>
       <c r="G214" s="14"/>
       <c r="H214" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I214" s="5">
         <v>1</v>
@@ -7075,7 +7052,7 @@
       <c r="F215" s="5"/>
       <c r="G215" s="14"/>
       <c r="H215" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I215" s="5">
         <v>1</v>
@@ -7099,7 +7076,7 @@
       <c r="F216" s="5"/>
       <c r="G216" s="14"/>
       <c r="H216" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I216" s="5">
         <v>1</v>
@@ -7123,7 +7100,7 @@
       <c r="F217" s="5"/>
       <c r="G217" s="14"/>
       <c r="H217" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I217" s="5">
         <v>1</v>
@@ -7147,13 +7124,14 @@
       <c r="F218" s="5"/>
       <c r="G218" s="14"/>
       <c r="H218" s="5" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I218" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I218" xr:uid="{79204F6B-517A-564E-9C6F-844AD3C40ABB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>